--- a/data/trans_orig/P1425-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE30C545-784B-4AA6-A6C5-51D862C48760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{683DB8D7-0DF7-4713-AAA8-A3A248144BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEBCF00C-C2DA-42EA-82E7-4929FA324CBB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA899EBD-AFAD-4CD8-A57D-22539F5B835C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="221">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,603 +95,600 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
     <t>0,04%</t>
   </si>
   <si>
@@ -699,9 +696,6 @@
   </si>
   <si>
     <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -1119,7 +1113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2046AA78-CDE2-4C43-A0D9-39EF069FF4EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FAB795-879A-4C39-972B-219ED6EFE349}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1736,13 +1730,13 @@
         <v>9505</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1751,13 @@
         <v>546761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -1772,13 +1766,13 @@
         <v>471553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>969</v>
@@ -1787,10 +1781,10 @@
         <v>1018315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>52</v>
@@ -1897,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1906,13 @@
         <v>40732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1927,13 +1921,13 @@
         <v>36848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -1942,13 +1936,13 @@
         <v>77580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1957,13 @@
         <v>3235812</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>3261</v>
@@ -1978,28 +1972,28 @@
         <v>3342350</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>6434</v>
       </c>
       <c r="N18" s="7">
-        <v>6578160</v>
+        <v>6578161</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,7 +2035,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2074,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47173038-AD27-490F-B14C-379DC977282F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C367FCCD-16EF-4EAA-B2D8-E0AFA2572253}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2204,7 +2198,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2234,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2243,13 @@
         <v>19467</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -2264,13 +2258,13 @@
         <v>13783</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -2279,13 +2273,13 @@
         <v>33250</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2294,13 @@
         <v>955176</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H6" s="7">
         <v>1234</v>
@@ -2315,13 +2309,13 @@
         <v>1324013</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M6" s="7">
         <v>2125</v>
@@ -2330,13 +2324,13 @@
         <v>2279190</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2455,13 +2449,13 @@
         <v>8148</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2470,13 +2464,13 @@
         <v>4835</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2485,13 +2479,13 @@
         <v>12983</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2500,13 @@
         <v>1955809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>1629</v>
@@ -2521,28 +2515,28 @@
         <v>1749757</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>3478</v>
       </c>
       <c r="N10" s="7">
-        <v>3705567</v>
+        <v>3705566</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,7 +2578,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2616,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2661,13 +2655,13 @@
         <v>5175</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2676,13 +2670,13 @@
         <v>1780</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2691,13 +2685,13 @@
         <v>6955</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2706,13 @@
         <v>476006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -2727,13 +2721,13 @@
         <v>456851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -2742,13 +2736,13 @@
         <v>932857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2861,13 @@
         <v>32790</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2882,13 +2876,13 @@
         <v>20398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2897,13 +2891,13 @@
         <v>53188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2912,13 @@
         <v>3386992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H18" s="7">
         <v>3274</v>
@@ -2933,28 +2927,28 @@
         <v>3530622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M18" s="7">
         <v>6448</v>
       </c>
       <c r="N18" s="7">
-        <v>6917613</v>
+        <v>6917614</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2990,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3029,7 +3023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EAC819-1C41-4254-9E1F-16D0F86D3418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2598B1BB-6D70-4EB3-8A0F-D8195C824E1F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3046,7 +3040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3159,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3174,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3204,13 +3198,13 @@
         <v>10642</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3219,13 +3213,13 @@
         <v>17650</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -3234,13 +3228,13 @@
         <v>28292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3249,13 @@
         <v>743705</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="H6" s="7">
         <v>877</v>
@@ -3270,13 +3264,13 @@
         <v>977010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="M6" s="7">
         <v>1628</v>
@@ -3285,13 +3279,13 @@
         <v>1720715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,7 +3359,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3380,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3395,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3404,13 @@
         <v>18133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3425,13 +3419,13 @@
         <v>14082</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -3440,13 +3434,13 @@
         <v>32215</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3455,13 @@
         <v>2058252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>1896</v>
@@ -3476,13 +3470,13 @@
         <v>1974218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>3830</v>
@@ -3491,13 +3485,13 @@
         <v>4032470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,7 +3565,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3601,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3631,13 +3625,13 @@
         <v>2024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3646,13 +3640,13 @@
         <v>4780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,10 +3664,10 @@
         <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -3682,13 +3676,13 @@
         <v>547116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3697,13 +3691,13 @@
         <v>1091246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,7 +3801,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3816,13 @@
         <v>31531</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -3837,13 +3831,13 @@
         <v>33756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3852,13 +3846,13 @@
         <v>65287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3867,13 @@
         <v>3346087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>3297</v>
@@ -3888,13 +3882,13 @@
         <v>3498344</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M18" s="7">
         <v>6481</v>
@@ -3903,13 +3897,13 @@
         <v>6844431</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BE1C1B-109A-41E5-A6AE-9128FC5F4C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F0582E-0269-40D4-BD7D-8DD41BDD64EE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4001,7 +3995,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4108,10 +4102,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4123,10 +4117,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4138,10 +4132,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4165,7 +4159,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4180,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4195,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4231,7 +4225,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4246,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,10 +4308,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4329,10 +4323,10 @@
         <v>2249520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4344,10 +4338,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4371,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4386,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4401,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4416,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4437,7 +4431,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4452,7 +4446,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,10 +4514,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4535,10 +4529,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4550,10 +4544,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4577,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4592,7 +4586,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4607,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4643,7 +4637,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4658,7 +4652,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,10 +4720,10 @@
         <v>3376695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4741,10 +4735,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4756,10 +4750,10 @@
         <v>7176055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4798,7 +4792,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4813,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,7 +4843,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4864,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1425-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683DB8D7-0DF7-4713-AAA8-A3A248144BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{897DAF1E-6F91-4C96-9FE3-BE91ECF0B0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA899EBD-AFAD-4CD8-A57D-22539F5B835C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2AA7C64D-C39B-4D6E-9228-AEF784AC0563}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="209">
   <si>
     <t>Población con diagnóstico de otros problemas mentales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,607 +95,571 @@
     <t>2,67%</t>
   </si>
   <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>99,06%</t>
   </si>
   <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
   </si>
   <si>
     <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otros problemas mentales en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -1113,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FAB795-879A-4C39-972B-219ED6EFE349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581ECE6D-2158-4B2D-A987-346557C9DB3B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1542,7 +1506,7 @@
         <v>1641</v>
       </c>
       <c r="D10" s="7">
-        <v>1684924</v>
+        <v>1684925</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1593,7 +1557,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1721,7 +1685,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -1730,13 +1694,13 @@
         <v>9505</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1715,13 @@
         <v>546761</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -1766,13 +1730,13 @@
         <v>471553</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>969</v>
@@ -1781,10 +1745,10 @@
         <v>1018315</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>52</v>
@@ -1891,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1870,13 @@
         <v>40732</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -1921,13 +1885,13 @@
         <v>36848</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -1936,13 +1900,13 @@
         <v>77580</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1918,13 @@
         <v>3173</v>
       </c>
       <c r="D18" s="7">
-        <v>3235812</v>
+        <v>3235811</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>87</v>
@@ -1993,7 +1957,7 @@
         <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +1969,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2068,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C367FCCD-16EF-4EAA-B2D8-E0AFA2572253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB507B6A-891E-471A-BF63-63D62FD0E846}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2228,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,10 +2207,10 @@
         <v>19467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>98</v>
@@ -2258,13 +2222,13 @@
         <v>13783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -2273,13 +2237,13 @@
         <v>33250</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2258,13 @@
         <v>955176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H6" s="7">
         <v>1234</v>
@@ -2309,13 +2273,13 @@
         <v>1324013</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" s="7">
         <v>2125</v>
@@ -2324,13 +2288,13 @@
         <v>2279190</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2449,13 +2413,13 @@
         <v>8148</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2464,10 +2428,10 @@
         <v>4835</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>116</v>
@@ -2482,10 +2446,10 @@
         <v>117</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2464,13 @@
         <v>1955809</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>1629</v>
@@ -2515,28 +2479,28 @@
         <v>1749757</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>3478</v>
       </c>
       <c r="N10" s="7">
-        <v>3705566</v>
+        <v>3705567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,7 +2542,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2610,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2640,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2619,13 @@
         <v>5175</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2676,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2685,13 +2649,13 @@
         <v>6955</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2670,13 @@
         <v>476006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>411</v>
@@ -2721,13 +2685,13 @@
         <v>456851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -2736,13 +2700,13 @@
         <v>932857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2825,13 @@
         <v>32790</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2876,13 +2840,13 @@
         <v>20398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2891,13 +2855,13 @@
         <v>53188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2876,13 @@
         <v>3386992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H18" s="7">
         <v>3274</v>
@@ -2927,28 +2891,28 @@
         <v>3530622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>6448</v>
       </c>
       <c r="N18" s="7">
-        <v>6917614</v>
+        <v>6917613</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +2954,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3023,7 +2987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2598B1BB-6D70-4EB3-8A0F-D8195C824E1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A37D94-E774-4082-9617-D9C42D40A3D4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3040,7 +3004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3153,7 +3117,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3168,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3198,13 +3162,13 @@
         <v>10642</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3213,13 +3177,13 @@
         <v>17650</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -3228,13 +3192,13 @@
         <v>28292</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3213,13 @@
         <v>743705</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="H6" s="7">
         <v>877</v>
@@ -3264,13 +3228,13 @@
         <v>977010</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>1628</v>
@@ -3279,13 +3243,13 @@
         <v>1720715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3374,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3389,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3368,13 @@
         <v>18133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -3419,13 +3383,13 @@
         <v>14082</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -3434,13 +3398,13 @@
         <v>32215</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3419,13 @@
         <v>2058252</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>1896</v>
@@ -3470,13 +3434,13 @@
         <v>1974218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="M10" s="7">
         <v>3830</v>
@@ -3485,13 +3449,13 @@
         <v>4032470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3595,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3625,13 +3589,13 @@
         <v>2024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3640,13 +3604,13 @@
         <v>4780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,10 +3628,10 @@
         <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -3676,13 +3640,13 @@
         <v>547116</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
         <v>1023</v>
@@ -3691,13 +3655,13 @@
         <v>1091246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3780,13 @@
         <v>31531</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -3831,13 +3795,13 @@
         <v>33756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3846,13 +3810,13 @@
         <v>65287</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3831,13 @@
         <v>3346087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>3297</v>
@@ -3882,13 +3846,13 @@
         <v>3498344</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M18" s="7">
         <v>6481</v>
@@ -3897,13 +3861,13 @@
         <v>6844431</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F0582E-0269-40D4-BD7D-8DD41BDD64EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC5B700-B5DC-4CA9-A45E-AEEF24BDE3AC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3995,7 +3959,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4102,10 +4066,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4117,10 +4081,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4132,10 +4096,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4159,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4174,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4189,7 +4153,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4225,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4240,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,10 +4272,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4320,13 +4284,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4338,10 +4302,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4365,7 +4329,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4380,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4395,7 +4359,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4431,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4446,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4437,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4514,10 +4478,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4529,10 +4493,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4544,10 +4508,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4571,7 +4535,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4586,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4601,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,7 +4586,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4637,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4652,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4681,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4735,10 +4699,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4747,13 +4711,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4792,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4807,7 +4771,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4858,7 +4822,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,7 +4834,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4900,7 +4864,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>

--- a/data/trans_orig/P1425-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F26587-45E7-4ED8-885B-FC76D99F6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D34A451-FE9D-4FD0-BFA2-32180153513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{830E0C78-B8FB-40E2-8DD3-2AA8F0ED887A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5BC77FBD-7A5F-4B2B-B08C-2A9A2C137062}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BBAFCF-3707-42E4-BB05-E757BAA17933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD22DE1-C8D4-4B94-8F9D-E739264BC0EC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1245,7 +1245,7 @@
         <v>2277</v>
       </c>
       <c r="N5" s="7">
-        <v>2294551</v>
+        <v>2294550</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1296,7 +1296,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1370,7 +1370,7 @@
         <v>1641</v>
       </c>
       <c r="D8" s="7">
-        <v>1684924</v>
+        <v>1684925</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1421,7 +1421,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1680,7 +1680,7 @@
         <v>3173</v>
       </c>
       <c r="D14" s="7">
-        <v>3235812</v>
+        <v>3235811</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -1695,7 +1695,7 @@
         <v>3261</v>
       </c>
       <c r="I14" s="7">
-        <v>3342350</v>
+        <v>3342349</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -1710,7 +1710,7 @@
         <v>6434</v>
       </c>
       <c r="N14" s="7">
-        <v>6578160</v>
+        <v>6578161</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
@@ -1731,7 +1731,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1746,7 +1746,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1761,7 +1761,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1794,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041279B3-381B-4C8F-AAD0-1E06BAAB6844}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622530AF-4C35-493A-9D58-677DF701D27E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1981,7 +1981,7 @@
         <v>1234</v>
       </c>
       <c r="I5" s="7">
-        <v>1324013</v>
+        <v>1324014</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>95</v>
@@ -2032,7 +2032,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2151,7 +2151,7 @@
         <v>3478</v>
       </c>
       <c r="N8" s="7">
-        <v>3705567</v>
+        <v>3705566</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>114</v>
@@ -2202,7 +2202,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2306,7 +2306,7 @@
         <v>845</v>
       </c>
       <c r="N11" s="7">
-        <v>932857</v>
+        <v>932858</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>131</v>
@@ -2357,7 +2357,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2545,7 +2545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06884C8-4E99-4434-8144-C37087D2A460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A495E9F6-3E23-4E39-A00B-1AD9326FB5E2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3057,7 +3057,7 @@
         <v>1023</v>
       </c>
       <c r="N11" s="7">
-        <v>1091246</v>
+        <v>1091247</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>187</v>
@@ -3108,7 +3108,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
